--- a/比特直播课/比特直播课笔记/笔记-C++/2024_12_4 9.vector(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_12_4 9.vector(2).xlsx
@@ -13,6 +13,19 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>奇数情况下，（first ！= --last）会结束循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个条件判断真的很精妙，在只能用！=作为边界条件的情况下，错位去++first和--last，这样奇数偶数情况都能适用，偶数情况下第一个条件（first！=last）会终止循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,6 +83,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>646008</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>113490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="323850"/>
+          <a:ext cx="13533333" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85111</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="7658100"/>
+          <a:ext cx="4914286" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>370771</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="9791700"/>
+          <a:ext cx="5628571" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,17 +491,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C43:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
